--- a/1.4/AA_Function_list.xlsx
+++ b/1.4/AA_Function_list.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karnijs\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="9135"/>
   </bookViews>
@@ -69,9 +64,6 @@
     <t>PreFormat_Text()</t>
   </si>
   <si>
-    <t>Prefix_Number_Checking()</t>
-  </si>
-  <si>
     <t>add_digits()</t>
   </si>
   <si>
@@ -214,13 +206,16 @@
   </si>
   <si>
     <t>Integration Test</t>
+  </si>
+  <si>
+    <t>Prefix_Alone_Checking_and_add_One_up()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,77 +740,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -912,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -964,7 +889,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1158,7 +1083,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1166,449 +1091,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
       <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
       <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
       <c r="B37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B57">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState ref="A2:B57">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="L43">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B20">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.4/AA_Function_list.xlsx
+++ b/1.4/AA_Function_list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>Put_Formatted_Serials_into_Array()</t>
   </si>
@@ -1083,7 +1083,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,6 +1130,9 @@
     <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">

--- a/1.4/AA_Function_list.xlsx
+++ b/1.4/AA_Function_list.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karnijs\Desktop\Autohotkey\02_Effectivity Macro\1.4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="9135"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>Put_Formatted_Serials_into_Array()</t>
   </si>
@@ -214,8 +219,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,7 +1088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1095,15 +1100,15 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1127,7 +1132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1143,7 +1148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1204,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +1212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1231,7 +1236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1239,7 +1244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1247,7 +1252,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.75" hidden="1" thickTop="1">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1255,12 +1260,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.75" thickTop="1">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1268,7 +1273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1292,7 +1297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +1329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1356,7 +1361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1369,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1380,7 +1385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1388,7 +1393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1412,12 +1417,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1425,12 +1433,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1">
       <c r="A42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1438,12 +1449,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1451,37 +1462,43 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1">
       <c r="A50" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1">
       <c r="A51" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1489,7 +1506,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -1497,7 +1514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -1505,17 +1522,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1">
       <c r="A55" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1">
       <c r="A56" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1">
       <c r="A57" t="s">
         <v>51</v>
       </c>

--- a/1.4/AA_Function_list.xlsx
+++ b/1.4/AA_Function_list.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karnijs\Desktop\Autohotkey\02_Effectivity Macro\1.4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="9135"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>Put_Formatted_Serials_into_Array()</t>
   </si>
@@ -219,8 +214,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,7 +1083,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1100,15 +1095,15 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1116,7 +1111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="2" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1124,7 +1119,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="3" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1132,7 +1127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="4" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1140,7 +1135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="5" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1148,7 +1143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="6" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1156,7 +1151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="7" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1164,7 +1159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="8" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="9" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="10" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="11" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="12" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="13" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1212,7 +1207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="14" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1220,7 +1215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="15" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1228,7 +1223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="16" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1236,7 +1231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="17" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1244,7 +1239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="18" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" hidden="1" thickTop="1">
+    <row r="19" spans="1:2" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1260,12 +1255,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickTop="1">
+    <row r="20" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1273,7 +1268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +1276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1305,7 +1300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1313,7 +1308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1321,7 +1316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1332,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1353,7 +1348,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1361,7 +1356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1369,7 +1364,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1377,7 +1372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1401,7 +1396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1409,7 +1404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1417,7 +1412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -1425,7 +1420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1433,7 +1428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1441,7 +1436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1449,12 +1444,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" hidden="1">
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1462,27 +1460,39 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1">
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -1490,7 +1500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1498,7 +1508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -1514,7 +1524,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -1530,7 +1540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -1538,7 +1548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
